--- a/data/original/exercises/020-qualtrics/030-010-010-ex1.xlsx
+++ b/data/original/exercises/020-qualtrics/030-010-010-ex1.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,6 +570,244 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44523.81165509259</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44523.81331018519</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>142</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44523.81332175926</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3mihar</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ebola %&gt;% 
+pivot_longer(`289`:last_col(), names_to = "day", values_to = "cases") %&gt;% 
+drop_na()</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44523.81145833334</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44523.81542824074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>342</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44523.81542824074</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1pogus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44518.81680555556</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44518.85743055555</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>3510</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44523.87980324074</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0hacar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44518.81865740741</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44518.82510416667</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>557</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44523.87980324074</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0hacar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44523.80055555556</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44523.80107638889</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44523.87981481482</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3mihar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44518.81951388888</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44518.82061342592</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>94</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44523.87987268518</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>8Musou</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44523.09898148148</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44523.09974537038</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44523.87990740741</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
